--- a/data/trans_bre/P19D_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19D_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.585581982793692</v>
+        <v>-3.476002491122668</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.759437528134199</v>
+        <v>-7.476027443124051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.392542850112677</v>
+        <v>-5.442884666722833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.609700166711075</v>
+        <v>-6.915803442287705</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6148831685870936</v>
+        <v>-0.585555071906121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4121351880170682</v>
+        <v>-0.4019812678922696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3790447142584135</v>
+        <v>-0.3492904312954883</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7770358391331234</v>
+        <v>-0.7750411534264756</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.068646250016623</v>
+        <v>5.155797585442872</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.402318033261088</v>
+        <v>5.485327219044123</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.409835534248994</v>
+        <v>6.084846194348096</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.2732565897375963</v>
+        <v>-0.2895064709439633</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.280160801987783</v>
+        <v>2.439134365655945</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4535814462961691</v>
+        <v>0.4539912600990736</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6372454147878146</v>
+        <v>0.6467757367092707</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.03251445928734349</v>
+        <v>-0.04908522701587313</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>-0.1055476252308904</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3446282430493969</v>
+        <v>-0.344628243049397</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.141615269178609</v>
+        <v>-6.200242931938579</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.58849095442787</v>
+        <v>-11.58565374821819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.761907655588123</v>
+        <v>-3.768633176484541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.909486305456457</v>
+        <v>-6.709615408255869</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4411091756158044</v>
+        <v>-0.4511948950730428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5249083340940174</v>
+        <v>-0.5309884132702261</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5345670129573478</v>
+        <v>-0.5431149700518442</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6540559529750042</v>
+        <v>-0.6355930283722767</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.13137775176548</v>
+        <v>2.420347212236218</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.8342130347537182</v>
+        <v>-1.800993452639196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.598170133800351</v>
+        <v>2.597281206586941</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9578908197575098</v>
+        <v>0.6780408808159504</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2473273993423075</v>
+        <v>0.2948786966622986</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03669652118245811</v>
+        <v>-0.09168732088091511</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7359904514341062</v>
+        <v>0.7947561753584026</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2220414194431015</v>
+        <v>0.1537027421811785</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.5696853423036718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.7761348784884859</v>
+        <v>-0.7761348784884874</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2480380447052082</v>
@@ -849,7 +849,7 @@
         <v>0.0712781673488086</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.140062756290684</v>
+        <v>-0.1400627562906842</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.862814914026895</v>
+        <v>-6.550995518441647</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.19256463853822</v>
+        <v>-6.831780587323879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.700407829350162</v>
+        <v>-3.832296053719409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.384509684826265</v>
+        <v>-3.758851281467442</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6219669653164118</v>
+        <v>-0.6633328250556442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3788511005621559</v>
+        <v>-0.3627998867328046</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3687488474771097</v>
+        <v>-0.3832277414293381</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4936433044351949</v>
+        <v>-0.5178597125722307</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.25117829831667</v>
+        <v>1.999240817780308</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.317068663819835</v>
+        <v>4.695764569161795</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.872207652927091</v>
+        <v>4.665063191750089</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.014833162726309</v>
+        <v>2.217838621405417</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5777909975487093</v>
+        <v>0.5282672473812469</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3404333458230994</v>
+        <v>0.3792425751913004</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8069434739709247</v>
+        <v>0.7890260830982445</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5135536493430641</v>
+        <v>0.5540842248623368</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.485603418785752</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.063568307751699</v>
+        <v>-1.0635683077517</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2872651365509174</v>
@@ -949,7 +949,7 @@
         <v>-0.2265651676831433</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2966684663122808</v>
+        <v>-0.296668466312281</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.876073437170154</v>
+        <v>-6.408119655915651</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.140638700184789</v>
+        <v>-8.239228715672303</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.064490648662448</v>
+        <v>-7.458054238170547</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.341576782101119</v>
+        <v>-4.700680884344385</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6610280656481706</v>
+        <v>-0.6699480894635806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5406372035780515</v>
+        <v>-0.5394697842617925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5345932150964697</v>
+        <v>-0.5321592674480047</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7531206443816384</v>
+        <v>-0.7074189975912567</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.29568930123203</v>
+        <v>1.711448663010963</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.959311936581534</v>
+        <v>1.46197902256525</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.502541214966838</v>
+        <v>1.79226818121614</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.266125760264908</v>
+        <v>1.381633420822432</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5248013577421705</v>
+        <v>0.4467960688910814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2253532080292203</v>
+        <v>0.1649360992551686</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2819508316808126</v>
+        <v>0.2530345655267388</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6958269716507922</v>
+        <v>0.8944587792192437</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.031527771264768</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.698522679230931</v>
+        <v>-1.698522679230932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1864819268700649</v>
@@ -1049,7 +1049,7 @@
         <v>0.6510379173522718</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2118401492095169</v>
+        <v>-0.211840149209517</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.349678798298274</v>
+        <v>-4.259030978919157</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.377566634535654</v>
+        <v>-8.549831493757708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.773920463622481</v>
+        <v>-2.310790552075068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.185106476850381</v>
+        <v>-5.683186993238842</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5309419328850623</v>
+        <v>-0.5312589817965557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4915816252175259</v>
+        <v>-0.4705881667540681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1946539220883809</v>
+        <v>-0.2528334880297958</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5429794566401852</v>
+        <v>-0.5191029686894033</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.092728294827894</v>
+        <v>7.152684056239986</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.307198529771433</v>
+        <v>4.798795196330404</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.25524442615509</v>
+        <v>11.80560966146521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.915772965545918</v>
+        <v>1.939006481796764</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.76311053062321</v>
+        <v>1.676960518097371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4862498555699832</v>
+        <v>0.4584295473891072</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.740184492612671</v>
+        <v>2.878000954204939</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3466066687083755</v>
+        <v>0.3744123715630689</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-2.291784934397634</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.3652431523300165</v>
+        <v>0.3652431523300151</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2723047335910566</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2309054879069704</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.06306203432433961</v>
+        <v>0.06306203432433936</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.469316763755725</v>
+        <v>-6.12039682375732</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.763002972345563</v>
+        <v>-6.94748491361289</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.291745845325461</v>
+        <v>-8.263745278578623</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.876367551279281</v>
+        <v>-3.002883709537067</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7441016049784981</v>
+        <v>-0.7237356556675518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.377839638579934</v>
+        <v>-0.3871277690630163</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5827134268835656</v>
+        <v>-0.6100636684122506</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3814184298949653</v>
+        <v>-0.4037519456346931</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.749122011420355</v>
+        <v>2.749121263450329</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.552724458617099</v>
+        <v>5.163066896604897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.543787646379973</v>
+        <v>2.338792633821094</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.679316600329431</v>
+        <v>3.73183298296414</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9705206536745065</v>
+        <v>0.818005211926824</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5388309152410024</v>
+        <v>0.4206870070759373</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3977215783824115</v>
+        <v>0.3340248556251877</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8707156514992871</v>
+        <v>0.9780111387039967</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>0.6992588793730312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.391503466523141</v>
+        <v>-1.39150346652314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1266091347925013</v>
@@ -1249,7 +1249,7 @@
         <v>0.08202216083520361</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2128279370216896</v>
+        <v>-0.2128279370216895</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.358074100234221</v>
+        <v>-4.452569041278327</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.300401422871947</v>
+        <v>-6.248729008730128</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.088129044177472</v>
+        <v>-3.222637782206396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.040014817840648</v>
+        <v>-4.455449577440167</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4679416298791251</v>
+        <v>-0.4759762598614902</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4657642175639103</v>
+        <v>-0.4465088944277562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3127776728106644</v>
+        <v>-0.301369393666214</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.5351451270982308</v>
+        <v>-0.5097150451936626</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.317351877093709</v>
+        <v>1.984828654175439</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7105523583433471</v>
+        <v>1.197783748316724</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.038404729598519</v>
+        <v>4.632606995203682</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.011987647309852</v>
+        <v>1.353540377429063</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4328394937088353</v>
+        <v>0.3471562691900326</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07606917395886945</v>
+        <v>0.1369805936135851</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7690224537263837</v>
+        <v>0.6798951795106472</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2304406894037313</v>
+        <v>0.2822560940978414</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.491100660843746</v>
+        <v>-1.550659675492124</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-5.277789792103986</v>
+        <v>-5.490136143425899</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-4.148021826201471</v>
+        <v>-4.188941725728768</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-10.08519833772528</v>
+        <v>-9.746332709897493</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2102727797975908</v>
+        <v>-0.2207485394465439</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4196538393100995</v>
+        <v>-0.4276232573269782</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3413413217395497</v>
+        <v>-0.3497242301587206</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5230057477366442</v>
+        <v>-0.52038574137267</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.644099939448211</v>
+        <v>4.843945979000705</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.355631613758855</v>
+        <v>1.362718877963514</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.208692862710125</v>
+        <v>2.3745832088846</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-3.421082501161603</v>
+        <v>-3.234299956744112</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9941189248899862</v>
+        <v>0.9915860077178011</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1760688315430124</v>
+        <v>0.1670565943692943</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.267289551339688</v>
+        <v>0.2765374750372141</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2225255188158351</v>
+        <v>-0.2142655248881165</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-0.3779995334695432</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-2.694532888280378</v>
+        <v>-2.694532888280376</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.06716772999388397</v>
@@ -1449,7 +1449,7 @@
         <v>-0.04089774880225571</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.3163455153443376</v>
+        <v>-0.3163455153443375</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.995818800977585</v>
+        <v>-2.035713487179604</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.305301438705465</v>
+        <v>-4.369266147506937</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.10980573847629</v>
+        <v>-2.073120901255638</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.902512507186384</v>
+        <v>-4.056249525897827</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2438963438818913</v>
+        <v>-0.2595717597830285</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2980901805242601</v>
+        <v>-0.3022152643545722</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2044346626894344</v>
+        <v>-0.2038997001875376</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.4192910678329037</v>
+        <v>-0.4350854965549151</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8644789934657683</v>
+        <v>0.8986021560086614</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.7765664971534342</v>
+        <v>-0.8762418670466204</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.30421418525035</v>
+        <v>1.148321342788876</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.344193076538035</v>
+        <v>-1.462747302002015</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1479035865117563</v>
+        <v>0.1362353804293921</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.06250199630673016</v>
+        <v>-0.06604834352115106</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1547385055223879</v>
+        <v>0.1371830292585692</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.1763667708434366</v>
+        <v>-0.1872874920238715</v>
       </c>
     </row>
     <row r="31">
